--- a/Flower pollination algorithm/ACOR/Data/testdata.xlsx
+++ b/Flower pollination algorithm/ACOR/Data/testdata.xlsx
@@ -1,46 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/ACOR/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6335791-D09B-AC4E-B61C-5E1493FC1F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fun1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,35 +51,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,8 +458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
       <selection activeCell="B10" sqref="A1:B10"/>
@@ -413,49 +471,134 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col width="9.83203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>3532.509741320261</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>41.685227394104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>3400.03985356387</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>40.59079194068909</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>4135.91141428686</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>40.1279993057251</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3006.760571668045</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>39.56267333030701</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4219.992717756201</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>39.50646018981934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>3229.01593578297</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>39.93251347541809</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3822.113431342328</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>39.86013031005859</v>
+      </c>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2597.861079527855</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>39.94577074050903</v>
+      </c>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>3262.670658786456</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>40.36558747291565</v>
+      </c>
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3428.206556229674</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>39.79001879692078</v>
+      </c>
+      <c r="C10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3353.841535626817</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>39.52820777893066</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>4191.575035340199</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>39.95067191123962</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>4694.556010588744</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>39.82131171226501</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>3672.287424162094</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>39.95508289337158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2740.971359804105</v>
+      </c>
+      <c r="B15" t="n">
+        <v>41.27033305168152</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Flower pollination algorithm/ACOR/Data/testdata.xlsx
+++ b/Flower pollination algorithm/ACOR/Data/testdata.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -591,11 +592,110 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="0" t="n">
         <v>2740.971359804105</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>41.27033305168152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>54.43306322306712</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>42.48991656303406</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>55.10326445822707</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>40.28847193717957</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>66.25954442412809</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>40.5314724445343</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>57.85539073262029</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>40.73343062400818</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>57.71118004503133</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>40.60654067993164</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>54.85085395697482</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>40.46328711509705</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>57.94130412970761</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>40.26338315010071</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>53.50405370659593</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>40.08122134208679</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>52.32194267111942</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>40.40651154518127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>69.90092861492813</v>
+      </c>
+      <c r="B10" t="n">
+        <v>39.73055672645569</v>
       </c>
     </row>
   </sheetData>

--- a/Flower pollination algorithm/ACOR/Data/testdata.xlsx
+++ b/Flower pollination algorithm/ACOR/Data/testdata.xlsx
@@ -8,6 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -691,11 +693,209 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>69.90092861492813</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>39.73055672645569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>64344.93241646246</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>45.19793510437012</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>63271.93189852072</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>43.14702200889587</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>57500.8404706518</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>43.865558385849</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>67194.00562025896</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>42.60495328903198</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>69697.06154543706</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>43.04035639762878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>67150.55613513068</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>43.6037929058075</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>67391.37130329797</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>43.12251853942871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>71918.77731666582</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>43.68366479873657</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>76080.12772506774</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>43.1025652885437</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>68086.06240242918</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>43.60938358306885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>86.54524483000083</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>42.15923047065735</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>86.39029470803533</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>40.18448710441589</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>86.5450155872964</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>40.02711844444275</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>83.75415928879607</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>39.58985543251038</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>82.06763900215313</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>39.76457381248474</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>81.78543333196517</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>39.73001027107239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>85.33921123984429</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>39.74192333221436</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>75.64095330242168</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>39.72619700431824</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>86.28573688654382</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>39.7433602809906</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
-        <v>69.90092861492813</v>
+        <v>86.00240541817605</v>
       </c>
       <c r="B10" t="n">
-        <v>39.73055672645569</v>
+        <v>39.95199465751648</v>
       </c>
     </row>
   </sheetData>

--- a/Flower pollination algorithm/ACOR/Data/testdata.xlsx
+++ b/Flower pollination algorithm/ACOR/Data/testdata.xlsx
@@ -14,6 +14,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun7" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -645,6 +647,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>20.1885905820962</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>73.23674511909485</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>20.17626587741668</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>73.44369196891785</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>20.11397388705407</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>73.29946756362915</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>20.16174264088905</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>73.37668704986572</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>20.20142817579335</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>73.04355788230896</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>20.21060343674072</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>73.25562882423401</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>20.01603680631294</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>73.37995886802673</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20.25102536579298</v>
+      </c>
+      <c r="B8" t="n">
+        <v>73.32055330276489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1419,11 +1504,94 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="0" t="n">
         <v>-4855.852399987854</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>182.942202091217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>288.484116916584</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>73.64056015014648</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>285.8939840042705</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>73.81389141082764</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>269.2899361111239</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>73.43821954727173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>260.799847147206</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>73.11145401000977</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>248.0380418405193</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>73.04571080207825</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>280.5290648228982</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>73.11805653572083</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>269.7968176846484</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>73.35407638549805</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>293.8100477613106</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>73.626051902771</v>
       </c>
     </row>
   </sheetData>
